--- a/microservices/cart_service/data/cart.xlsx
+++ b/microservices/cart_service/data/cart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,22 +436,32 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>order</t>
+          <t>item_names</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>price</t>
+          <t>quantities</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>total_price</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>bánh cá matcha x1</t>
+          <t>["b\u00e1nh c\u00e1 matcha"]</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>8000</v>
       </c>
     </row>

--- a/microservices/cart_service/data/cart.xlsx
+++ b/microservices/cart_service/data/cart.xlsx
@@ -453,16 +453,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>["b\u00e1nh c\u00e1 matcha"]</t>
+          <t>["b\u00e1nh c\u00e1 matcha", "b\u00e1nh c\u00e1 ph\u00f4 mai", "b\u00e1nh c\u00e1 s\u00f4 c\u00f4 la"]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1, 1]</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
     </row>
   </sheetData>

--- a/microservices/cart_service/data/cart.xlsx
+++ b/microservices/cart_service/data/cart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,21 +450,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>["b\u00e1nh c\u00e1 matcha", "b\u00e1nh c\u00e1 ph\u00f4 mai", "b\u00e1nh c\u00e1 s\u00f4 c\u00f4 la"]</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24000</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/microservices/cart_service/data/cart.xlsx
+++ b/microservices/cart_service/data/cart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +450,276 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>["b\u00e1nh c\u00e1 b\u00f2 kh\u00f4", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la"]</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>["b\u00e1nh c\u00e1 b\u00f2 kh\u00f4", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la"]</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>[1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>["b\u00e1nh c\u00e1 b\u00f2 kh\u00f4", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ph\u00f4 mai ch\u00e0 b\u00f4ng", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la"]</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>["b\u00e1nh c\u00e1 matcha", "b\u00e1nh c\u00e1 ph\u00f4 mai", "b\u00e1nh c\u00e1 s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ch\u00e0 b\u00f4ng", "b\u00e1nh c\u00e1 b\u00f2 kh\u00f4", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ph\u00f4 mai ch\u00e0 b\u00f4ng", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 tr\u1ee9ng mu\u1ed1i", "tr\u00e0 \u0111\u00e0o(size L)", "tr\u00e0 \u0111\u00e0o(size M)", "tr\u00e0 \u0111\u00e0o(size S)", "tr\u00e0 chanh(size L)", "tr\u00e0 chanh(size M)", "tr\u00e0 chanh(size S)", "cacao(size L)", "cacao(size M)", "cacao(size S)", "matcha(size L)", "matcha(size M)", "matcha(size S)"]</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>258000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>["b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la"]</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>[1, 1]</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>["b\u00e1nh c\u00e1 b\u00f2 kh\u00f4", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la"]</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>[1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>["b\u00e1nh c\u00e1 b\u00f2 kh\u00f4", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la"]</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>["b\u00e1nh c\u00e1 matcha", "b\u00e1nh c\u00e1 ph\u00f4 mai", "b\u00e1nh c\u00e1 s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ch\u00e0 b\u00f4ng", "b\u00e1nh c\u00e1 b\u00f2 kh\u00f4", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ph\u00f4 mai ch\u00e0 b\u00f4ng", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 tr\u1ee9ng mu\u1ed1i", "tr\u00e0 \u0111\u00e0o(size L)", "tr\u00e0 \u0111\u00e0o(size M)", "tr\u00e0 \u0111\u00e0o(size S)", "tr\u00e0 chanh(size L)", "tr\u00e0 chanh(size M)", "tr\u00e0 chanh(size S)", "cacao(size L)"]</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>188000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>["b\u00e1nh c\u00e1 b\u00f2 kh\u00f4", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ph\u00f4 mai ch\u00e0 b\u00f4ng", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la"]</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>["b\u00e1nh c\u00e1 ph\u00f4 mai ch\u00e0 b\u00f4ng"]</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>["b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la"]</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[1, 1]</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>["b\u00e1nh c\u00e1 matcha", "b\u00e1nh c\u00e1 ph\u00f4 mai", "b\u00e1nh c\u00e1 ch\u00e0 b\u00f4ng", "b\u00e1nh c\u00e1 b\u00f2 kh\u00f4", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ph\u00f4 mai ch\u00e0 b\u00f4ng", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 tr\u1ee9ng mu\u1ed1i"]</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>["b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la"]</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>[1, 1]</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>["b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la"]</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>[1, 1]</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>["b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la"]</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[2, 2]</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>["b\u00e1nh c\u00e1 s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ch\u00e0 b\u00f4ng", "b\u00e1nh c\u00e1 b\u00f2 kh\u00f4", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ph\u00f4 mai ch\u00e0 b\u00f4ng", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la"]</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>["b\u00e1nh c\u00e1 b\u00f2 kh\u00f4", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ph\u00f4 mai ch\u00e0 b\u00f4ng", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la"]</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>["b\u00e1nh c\u00e1 b\u00f2 kh\u00f4", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ph\u00f4 mai ch\u00e0 b\u00f4ng", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la(tr\u1eafng)"]</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>36000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/microservices/cart_service/data/cart.xlsx
+++ b/microservices/cart_service/data/cart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -720,6 +720,21 @@
         <v>36000</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>["b\u00e1nh c\u00e1 matcha", "b\u00e1nh c\u00e1 ph\u00f4 mai"]</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>[1, 1]</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>16000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/microservices/cart_service/data/cart.xlsx
+++ b/microservices/cart_service/data/cart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>["b\u00e1nh c\u00e1 b\u00f2 kh\u00f4", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la"]</t>
+          <t>["b\u00e1nh c\u00e1 matcha", "b\u00e1nh c\u00e1 b\u00f2 kh\u00f4", "tr\u00e0 \u0111\u00e0o(size L)"]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,277 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>["b\u00e1nh c\u00e1 b\u00f2 kh\u00f4", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la"]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>["b\u00e1nh c\u00e1 b\u00f2 kh\u00f4", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ph\u00f4 mai ch\u00e0 b\u00f4ng", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la"]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
         <v>36000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>["b\u00e1nh c\u00e1 matcha", "b\u00e1nh c\u00e1 ph\u00f4 mai", "b\u00e1nh c\u00e1 s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ch\u00e0 b\u00f4ng", "b\u00e1nh c\u00e1 b\u00f2 kh\u00f4", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ph\u00f4 mai ch\u00e0 b\u00f4ng", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 tr\u1ee9ng mu\u1ed1i", "tr\u00e0 \u0111\u00e0o(size L)", "tr\u00e0 \u0111\u00e0o(size M)", "tr\u00e0 \u0111\u00e0o(size S)", "tr\u00e0 chanh(size L)", "tr\u00e0 chanh(size M)", "tr\u00e0 chanh(size S)", "cacao(size L)", "cacao(size M)", "cacao(size S)", "matcha(size L)", "matcha(size M)", "matcha(size S)"]</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>258000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>["b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la"]</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[1, 1]</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>["b\u00e1nh c\u00e1 b\u00f2 kh\u00f4", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la"]</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>["b\u00e1nh c\u00e1 b\u00f2 kh\u00f4", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la"]</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>["b\u00e1nh c\u00e1 matcha", "b\u00e1nh c\u00e1 ph\u00f4 mai", "b\u00e1nh c\u00e1 s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ch\u00e0 b\u00f4ng", "b\u00e1nh c\u00e1 b\u00f2 kh\u00f4", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ph\u00f4 mai ch\u00e0 b\u00f4ng", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 tr\u1ee9ng mu\u1ed1i", "tr\u00e0 \u0111\u00e0o(size L)", "tr\u00e0 \u0111\u00e0o(size M)", "tr\u00e0 \u0111\u00e0o(size S)", "tr\u00e0 chanh(size L)", "tr\u00e0 chanh(size M)", "tr\u00e0 chanh(size S)", "cacao(size L)"]</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>188000</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>["b\u00e1nh c\u00e1 b\u00f2 kh\u00f4", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ph\u00f4 mai ch\u00e0 b\u00f4ng", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la"]</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>["b\u00e1nh c\u00e1 ph\u00f4 mai ch\u00e0 b\u00f4ng"]</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[1]</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>["b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la"]</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[1, 1]</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>["b\u00e1nh c\u00e1 matcha", "b\u00e1nh c\u00e1 ph\u00f4 mai", "b\u00e1nh c\u00e1 ch\u00e0 b\u00f4ng", "b\u00e1nh c\u00e1 b\u00f2 kh\u00f4", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ph\u00f4 mai ch\u00e0 b\u00f4ng", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 tr\u1ee9ng mu\u1ed1i"]</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>["b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la"]</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[1, 1]</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>["b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la"]</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[1, 1]</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>["b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la"]</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[2, 2]</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>["b\u00e1nh c\u00e1 s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ch\u00e0 b\u00f4ng", "b\u00e1nh c\u00e1 b\u00f2 kh\u00f4", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ph\u00f4 mai ch\u00e0 b\u00f4ng", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la"]</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>52000</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>["b\u00e1nh c\u00e1 b\u00f2 kh\u00f4", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ph\u00f4 mai ch\u00e0 b\u00f4ng", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la"]</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>["b\u00e1nh c\u00e1 b\u00f2 kh\u00f4", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la", "b\u00e1nh c\u00e1 ph\u00f4 mai ch\u00e0 b\u00f4ng", "b\u00e1nh c\u00e1 ph\u00f4 mai s\u00f4 c\u00f4 la(tr\u1eafng)"]</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>["b\u00e1nh c\u00e1 matcha", "b\u00e1nh c\u00e1 ph\u00f4 mai"]</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>[1, 1]</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>16000</v>
       </c>
     </row>
   </sheetData>

--- a/microservices/cart_service/data/cart.xlsx
+++ b/microservices/cart_service/data/cart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,21 +450,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>["b\u00e1nh c\u00e1 matcha", "b\u00e1nh c\u00e1 b\u00f2 kh\u00f4", "tr\u00e0 \u0111\u00e0o(size L)"]</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>36000</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/microservices/cart_service/data/cart.xlsx
+++ b/microservices/cart_service/data/cart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +450,21 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>["matcha(size M)"]</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
